--- a/src/main/resources/template/excel/export/CashDailyReport_SYY.xlsx
+++ b/src/main/resources/template/excel/export/CashDailyReport_SYY.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21195" windowHeight="6975"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="1" shapeId="0">
+    <comment ref="A4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>R4</t>
@@ -169,7 +173,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>posWzf</t>
@@ -194,7 +197,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>posZfb</t>
@@ -219,7 +221,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>mallZfb</t>
@@ -244,7 +245,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>mallWzf</t>
@@ -269,7 +269,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>yqb</t>
@@ -294,7 +293,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>djq</t>
@@ -319,7 +317,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>pdf</t>
@@ -344,7 +341,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>pbt</t>
@@ -414,7 +410,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,12 +469,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -593,20 +586,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -615,18 +598,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -928,100 +922,100 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:K3"/>
+      <selection activeCell="E4" sqref="E4:R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="15" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="15" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1034,15 +1028,15 @@
       <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,51 +1049,52 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="11" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="C2:C3"/>
@@ -1116,7 +1111,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/CashDailyReport_SYY.xlsx
+++ b/src/main/resources/template/excel/export/CashDailyReport_SYY.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,11 +41,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="R4")</t>
+          <t>jx:area(lastCell="S4")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="1">
+    <comment ref="A4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,23 +54,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>R4</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>")</t>
+jx:each(items="reportList" var="obj" lastCell="S4")</t>
         </r>
       </text>
     </comment>
@@ -79,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>收银日报</t>
   </si>
@@ -393,6 +377,25 @@
   <si>
     <r>
       <t>${obj.total</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS深圳通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.zzt</t>
     </r>
     <r>
       <rPr>
@@ -592,16 +595,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -610,17 +618,80 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -640,7 +711,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -919,44 +990,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:R4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="15" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="15" width="12.625" customWidth="1"/>
+    <col min="16" max="16" width="10.875" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -978,14 +1053,14 @@
       <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1002,20 +1077,23 @@
         <v>7</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1028,15 +1106,16 @@
       <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,54 +1128,61 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="S4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -1108,9 +1194,6 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
